--- a/inputs/susi_motti_parameters.xlsx
+++ b/inputs/susi_motti_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas1.seksko.slu.se\Extension_100TB\agandara\projects\forestProductivity\git\susi-swe\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\projects\forestProductivity\git\susi-swe\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419A96E-C9E5-4754-9F16-39E9738CA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841A5857-59BB-4879-ACC3-10292D2F1A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="param description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="438">
   <si>
     <t>commented</t>
   </si>
@@ -971,9 +971,6 @@
     <t>stationName.nc</t>
   </si>
   <si>
-    <t>03-SiteName, Sweden</t>
-  </si>
-  <si>
     <t>00_SiteName_weather.csv</t>
   </si>
   <si>
@@ -1064,9 +1061,6 @@
     <t>Site longitude in decimal degrees</t>
   </si>
   <si>
-    <t>yr</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1079,45 +1073,6 @@
     <t>Dg</t>
   </si>
   <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>pulp</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>yield</t>
-  </si>
-  <si>
-    <t>mortality</t>
-  </si>
-  <si>
-    <t>stem</t>
-  </si>
-  <si>
-    <t>stemloss</t>
-  </si>
-  <si>
-    <t>branch_living</t>
-  </si>
-  <si>
-    <t>branch_dead</t>
-  </si>
-  <si>
-    <t>leaves</t>
-  </si>
-  <si>
-    <t>stump</t>
-  </si>
-  <si>
-    <t>roots_coarse</t>
-  </si>
-  <si>
-    <t>roots_fine</t>
-  </si>
-  <si>
     <t>Simulation year</t>
   </si>
   <si>
@@ -1146,9 +1101,6 @@
   </si>
   <si>
     <t>Pulp wood volumen of the living stock</t>
-  </si>
-  <si>
-    <t>Wste wood volume of the living stock</t>
   </si>
   <si>
     <r>
@@ -1180,12 +1132,6 @@
     <t>Volume of dead trees m3/ha</t>
   </si>
   <si>
-    <t>Stand</t>
-  </si>
-  <si>
-    <t>Biomass variables 1000 kg/ha</t>
-  </si>
-  <si>
     <t>comercial wood</t>
   </si>
   <si>
@@ -1337,13 +1283,97 @@
   </si>
   <si>
     <t>Note: the stand and allometry data should be projected from the start to the end of the modelation period, using 1 or 5 years intervals.</t>
+  </si>
+  <si>
+    <t>Growth simulation</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Hdom</t>
+  </si>
+  <si>
+    <t>Total volume</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Waste wood</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>living branches</t>
+  </si>
+  <si>
+    <t>dead branches</t>
+  </si>
+  <si>
+    <t>foliage</t>
+  </si>
+  <si>
+    <t>stumps</t>
+  </si>
+  <si>
+    <t>roots &gt;2mm</t>
+  </si>
+  <si>
+    <t>fine roots</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>stems/ha</t>
+  </si>
+  <si>
+    <t>m2/ha</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>m3/ha</t>
+  </si>
+  <si>
+    <t>(tn/ha)</t>
+  </si>
+  <si>
+    <t>0 to n</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>stems</t>
+  </si>
+  <si>
+    <t>Waste wood volume of the living stock</t>
+  </si>
+  <si>
+    <t>00-SiteName, Sweden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,17 +1386,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -1383,8 +1402,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,13 +1436,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1448,10 +1502,6 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1459,12 +1509,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1747,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,85 +1825,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>425</v>
+        <v>404</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1978,7 +2036,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2003,7 +2061,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2070,12 +2128,12 @@
         <v>17</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2096,7 +2154,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2136,11 +2194,11 @@
         <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2161,7 +2219,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2171,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -2182,1844 +2240,1844 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="9">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H55" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H74" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="11">
+      <c r="G84" s="7"/>
+      <c r="H84" s="11">
         <v>86400</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="11">
+      <c r="G85" s="7"/>
+      <c r="H85" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
+      <c r="D86" s="7"/>
+      <c r="E86" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="11">
+      <c r="G86" s="7"/>
+      <c r="H86" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="D87" s="7"/>
+      <c r="E87" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="11">
+      <c r="G87" s="7"/>
+      <c r="H87" s="11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
+      <c r="D88" s="7"/>
+      <c r="E88" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="11">
+      <c r="G88" s="7"/>
+      <c r="H88" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8" t="s">
+      <c r="D89" s="7"/>
+      <c r="E89" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="11">
+      <c r="G89" s="7"/>
+      <c r="H89" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="12">
+      <c r="G90" s="7"/>
+      <c r="H90" s="12">
         <v>2.8934000000000001E-5</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="12">
+      <c r="G91" s="7"/>
+      <c r="H91" s="12">
         <v>5.7899999999999996E-6</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="11">
+      <c r="G92" s="7"/>
+      <c r="H92" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="11">
+      <c r="G93" s="7"/>
+      <c r="H93" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="11">
+      <c r="G94" s="7"/>
+      <c r="H94" s="11">
         <v>2.1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="11">
+      <c r="G95" s="7"/>
+      <c r="H95" s="11">
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="11">
+      <c r="G96" s="7"/>
+      <c r="H96" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D97" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="11">
+      <c r="G97" s="7"/>
+      <c r="H97" s="11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="11">
+      <c r="G98" s="7"/>
+      <c r="H98" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="11">
+      <c r="G99" s="7"/>
+      <c r="H99" s="11">
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="11">
+      <c r="G100" s="7"/>
+      <c r="H100" s="11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D101" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="11">
+      <c r="G101" s="7"/>
+      <c r="H101" s="11">
         <v>18.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11">
+      <c r="G102" s="7"/>
+      <c r="H102" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="11">
+      <c r="G103" s="7"/>
+      <c r="H103" s="11">
         <v>-4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="7" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="11">
+      <c r="G104" s="7"/>
+      <c r="H104" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7" t="s">
+      <c r="D105" s="8"/>
+      <c r="E105" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="11">
+      <c r="G105" s="7"/>
+      <c r="H105" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="7" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7" t="s">
+      <c r="D106" s="8"/>
+      <c r="E106" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="11">
+      <c r="G106" s="7"/>
+      <c r="H106" s="11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7" t="s">
+      <c r="D107" s="8"/>
+      <c r="E107" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="11">
+      <c r="G107" s="7"/>
+      <c r="H107" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7" t="s">
+      <c r="D108" s="8"/>
+      <c r="E108" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="11">
+      <c r="G108" s="7"/>
+      <c r="H108" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E109" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="11">
+      <c r="G109" s="7"/>
+      <c r="H109" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="11">
+      <c r="G110" s="7"/>
+      <c r="H110" s="11">
         <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H78" s="9">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H79" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H82" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H83" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H85" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H87" s="9">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H88" s="9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H90" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H91" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H93" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H94" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H97" s="9">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H102" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H103" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H104" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H106" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H107" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4033,7 +4091,7 @@
         <v>265</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
@@ -4055,7 +4113,7 @@
         <v>267</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
@@ -4077,7 +4135,7 @@
         <v>269</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
@@ -4099,7 +4157,7 @@
         <v>271</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
@@ -4121,7 +4179,7 @@
         <v>272</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
@@ -4143,7 +4201,7 @@
         <v>274</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
@@ -4165,7 +4223,7 @@
         <v>276</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
@@ -4187,7 +4245,7 @@
         <v>278</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
@@ -4207,252 +4265,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0396A4A8-507D-4E51-ABF7-0FF64547F0A0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="116.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C19" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" t="s">
-        <v>384</v>
+      <c r="C22" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4478,63 +4547,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="L1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="M1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="N1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="O1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F2">
         <v>20000101</v>
@@ -4575,10 +4644,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F3">
         <v>20000102</v>
@@ -4619,10 +4688,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F4">
         <v>20000103</v>
@@ -4663,10 +4732,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F5">
         <v>20000104</v>
@@ -4707,10 +4776,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F6">
         <v>20000105</v>
@@ -4751,10 +4820,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F7">
         <v>20000106</v>
@@ -4794,80 +4863,80 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>418</v>
+      <c r="B14" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D20">
         <v>20000625</v>
@@ -4875,10 +4944,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D21">
         <v>2000</v>
@@ -4886,10 +4955,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -4897,10 +4966,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -4908,10 +4977,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D24">
         <v>14.65</v>
@@ -4919,10 +4988,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D25">
         <v>57.6666666666666</v>
@@ -4930,10 +4999,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D26">
         <v>-0.2</v>
@@ -4941,10 +5010,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -4952,10 +5021,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D28">
         <v>-3.8</v>
@@ -4963,10 +5032,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D29">
         <v>1.7</v>
@@ -4974,10 +5043,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D30">
         <v>628.20000000000005</v>
@@ -4985,10 +5054,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D31">
         <v>5.87</v>
